--- a/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-patient.xlsx
+++ b/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-18T14:25:39+00:00</t>
+    <t>2025-08-18T14:43:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-patient.xlsx
+++ b/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-18T14:43:32+00:00</t>
+    <t>2025-08-19T08:24:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-patient.xlsx
+++ b/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T08:24:40+00:00</t>
+    <t>2025-08-21T08:22:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-patient.xlsx
+++ b/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T08:22:26+00:00</t>
+    <t>2025-08-22T13:34:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-patient.xlsx
+++ b/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T13:34:08+00:00</t>
+    <t>2025-08-22T13:38:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-patient.xlsx
+++ b/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6133" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6133" uniqueCount="823">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T13:38:23+00:00</t>
+    <t>2025-09-12T07:57:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1575,6 +1575,9 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+  </si>
+  <si>
     <t>Patient.identifier:InitialNumberMDPH.system</t>
   </si>
   <si>
@@ -1585,6 +1588,10 @@
   </si>
   <si>
     <t>Patient.identifier:InitialNumberMDPH.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -13952,7 +13959,7 @@
         <v>392</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>393</v>
+        <v>494</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
@@ -14005,7 +14012,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>397</v>
@@ -14127,7 +14134,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>408</v>
@@ -14247,7 +14254,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>417</v>
@@ -14365,7 +14372,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>424</v>
@@ -14391,7 +14398,7 @@
         <v>92</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>425</v>
+        <v>499</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>426</v>
@@ -14485,10 +14492,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14511,70 +14518,70 @@
         <v>92</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q97" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF97" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q97" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14592,13 +14599,13 @@
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14609,10 +14616,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14635,19 +14642,19 @@
         <v>92</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14684,7 +14691,7 @@
         <v>82</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AC98" s="2"/>
       <c r="AD98" t="s" s="2">
@@ -14694,7 +14701,7 @@
         <v>118</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14712,16 +14719,16 @@
         <v>82</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AP98" t="s" s="2">
         <v>82</v>
@@ -14729,13 +14736,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>82</v>
@@ -14757,19 +14764,19 @@
         <v>92</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14818,7 +14825,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14836,16 +14843,16 @@
         <v>82</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AP99" t="s" s="2">
         <v>82</v>
@@ -14853,10 +14860,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14971,10 +14978,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -15091,10 +15098,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15120,16 +15127,16 @@
         <v>171</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -15157,10 +15164,10 @@
         <v>261</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>82</v>
@@ -15178,7 +15185,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -15205,7 +15212,7 @@
         <v>82</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>82</v>
@@ -15213,10 +15220,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15242,13 +15249,13 @@
         <v>105</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>282</v>
@@ -15300,7 +15307,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -15327,7 +15334,7 @@
         <v>82</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>82</v>
@@ -15335,14 +15342,14 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -15364,13 +15371,13 @@
         <v>105</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -15420,7 +15427,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15435,10 +15442,10 @@
         <v>103</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>82</v>
@@ -15447,7 +15454,7 @@
         <v>82</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>82</v>
@@ -15455,14 +15462,14 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -15484,13 +15491,13 @@
         <v>105</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -15540,7 +15547,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15555,10 +15562,10 @@
         <v>103</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>82</v>
@@ -15567,7 +15574,7 @@
         <v>82</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AP105" t="s" s="2">
         <v>82</v>
@@ -15575,10 +15582,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15604,10 +15611,10 @@
         <v>105</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -15658,7 +15665,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15676,7 +15683,7 @@
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>82</v>
@@ -15685,7 +15692,7 @@
         <v>82</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AP106" t="s" s="2">
         <v>82</v>
@@ -15693,10 +15700,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15722,10 +15729,10 @@
         <v>105</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15776,7 +15783,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15794,7 +15801,7 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>82</v>
@@ -15803,7 +15810,7 @@
         <v>82</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AP107" t="s" s="2">
         <v>82</v>
@@ -15811,10 +15818,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15840,14 +15847,14 @@
         <v>341</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>82</v>
@@ -15896,7 +15903,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15923,7 +15930,7 @@
         <v>82</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AP108" t="s" s="2">
         <v>82</v>
@@ -15931,13 +15938,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D109" t="s" s="2">
         <v>82</v>
@@ -15959,19 +15966,19 @@
         <v>92</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -16020,7 +16027,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -16038,16 +16045,16 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AP109" t="s" s="2">
         <v>82</v>
@@ -16055,10 +16062,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16173,10 +16180,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16293,13 +16300,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D112" t="s" s="2">
         <v>82</v>
@@ -16321,13 +16328,13 @@
         <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -16393,7 +16400,7 @@
         <v>120</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>82</v>
@@ -16413,10 +16420,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16442,16 +16449,16 @@
         <v>171</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -16479,10 +16486,10 @@
         <v>261</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>82</v>
@@ -16500,7 +16507,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16527,7 +16534,7 @@
         <v>82</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AP113" t="s" s="2">
         <v>82</v>
@@ -16535,10 +16542,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16564,13 +16571,13 @@
         <v>105</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>282</v>
@@ -16622,7 +16629,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16649,7 +16656,7 @@
         <v>82</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AP114" t="s" s="2">
         <v>82</v>
@@ -16657,14 +16664,14 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -16686,13 +16693,13 @@
         <v>105</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -16742,7 +16749,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16757,10 +16764,10 @@
         <v>103</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>82</v>
@@ -16769,7 +16776,7 @@
         <v>82</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AP115" t="s" s="2">
         <v>82</v>
@@ -16777,14 +16784,14 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -16806,13 +16813,13 @@
         <v>105</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -16862,7 +16869,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16877,10 +16884,10 @@
         <v>103</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>82</v>
@@ -16889,7 +16896,7 @@
         <v>82</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AP116" t="s" s="2">
         <v>82</v>
@@ -16897,10 +16904,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16926,10 +16933,10 @@
         <v>105</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -16980,7 +16987,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16995,10 +17002,10 @@
         <v>103</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>82</v>
@@ -17007,7 +17014,7 @@
         <v>82</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AP117" t="s" s="2">
         <v>82</v>
@@ -17015,10 +17022,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17044,10 +17051,10 @@
         <v>105</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -17098,7 +17105,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -17116,7 +17123,7 @@
         <v>82</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>82</v>
@@ -17125,7 +17132,7 @@
         <v>82</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AP118" t="s" s="2">
         <v>82</v>
@@ -17133,10 +17140,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17162,14 +17169,14 @@
         <v>341</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
@@ -17218,7 +17225,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -17245,7 +17252,7 @@
         <v>82</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AP119" t="s" s="2">
         <v>82</v>
@@ -17253,10 +17260,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17279,19 +17286,19 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>82</v>
@@ -17340,7 +17347,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -17352,13 +17359,13 @@
         <v>204</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>82</v>
@@ -17367,7 +17374,7 @@
         <v>82</v>
       </c>
       <c r="AO120" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AP120" t="s" s="2">
         <v>82</v>
@@ -17375,10 +17382,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17404,16 +17411,16 @@
         <v>171</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
@@ -17442,7 +17449,7 @@
       </c>
       <c r="Y121" s="2"/>
       <c r="Z121" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>82</v>
@@ -17460,7 +17467,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17475,19 +17482,19 @@
         <v>103</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="AP121" t="s" s="2">
         <v>82</v>
@@ -17495,10 +17502,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17521,19 +17528,19 @@
         <v>92</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -17582,7 +17589,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17597,30 +17604,30 @@
         <v>103</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17646,10 +17653,10 @@
         <v>105</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -17735,10 +17742,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17851,13 +17858,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D125" t="s" s="2">
         <v>82</v>
@@ -17879,13 +17886,13 @@
         <v>82</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -17951,7 +17958,7 @@
         <v>120</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>82</v>
@@ -17971,10 +17978,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17997,13 +18004,13 @@
         <v>82</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -18054,7 +18061,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -18089,10 +18096,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18115,19 +18122,19 @@
         <v>92</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -18176,7 +18183,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -18194,7 +18201,7 @@
         <v>82</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>109</v>
@@ -18203,7 +18210,7 @@
         <v>82</v>
       </c>
       <c r="AO127" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="AP127" t="s" s="2">
         <v>82</v>
@@ -18211,10 +18218,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18249,7 +18256,7 @@
         <v>240</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -18298,7 +18305,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -18333,10 +18340,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18362,14 +18369,14 @@
         <v>386</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18398,7 +18405,7 @@
       </c>
       <c r="Y129" s="2"/>
       <c r="Z129" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>82</v>
@@ -18416,7 +18423,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18434,16 +18441,16 @@
         <v>82</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO129" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="AP129" t="s" s="2">
         <v>82</v>
@@ -18451,10 +18458,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18477,19 +18484,19 @@
         <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18538,7 +18545,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18556,7 +18563,7 @@
         <v>82</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>109</v>
@@ -18565,7 +18572,7 @@
         <v>82</v>
       </c>
       <c r="AO130" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="AP130" t="s" s="2">
         <v>82</v>
@@ -18573,10 +18580,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18599,19 +18606,19 @@
         <v>82</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>82</v>
@@ -18660,7 +18667,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18678,7 +18685,7 @@
         <v>82</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>109</v>
@@ -18687,7 +18694,7 @@
         <v>82</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AP131" t="s" s="2">
         <v>82</v>
@@ -18695,10 +18702,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18721,19 +18728,19 @@
         <v>82</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="O132" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>82</v>
@@ -18782,7 +18789,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18794,13 +18801,13 @@
         <v>82</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>109</v>
@@ -18817,10 +18824,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18935,10 +18942,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19051,13 +19058,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>82</v>
@@ -19079,13 +19086,13 @@
         <v>82</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -19171,13 +19178,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>82</v>
@@ -19199,13 +19206,13 @@
         <v>82</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -19291,14 +19298,14 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
@@ -19320,10 +19327,10 @@
         <v>112</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="N137" t="s" s="2">
         <v>115</v>
@@ -19378,7 +19385,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19413,10 +19420,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19442,14 +19449,14 @@
         <v>386</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19477,16 +19484,16 @@
         <v>153</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB138" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="AC138" s="2"/>
       <c r="AD138" t="s" s="2">
@@ -19496,7 +19503,7 @@
         <v>118</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19514,7 +19521,7 @@
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>109</v>
@@ -19523,7 +19530,7 @@
         <v>82</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>82</v>
@@ -19531,13 +19538,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D139" t="s" s="2">
         <v>82</v>
@@ -19562,14 +19569,14 @@
         <v>386</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>82</v>
@@ -19598,7 +19605,7 @@
       </c>
       <c r="Y139" s="2"/>
       <c r="Z139" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>82</v>
@@ -19616,7 +19623,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19634,7 +19641,7 @@
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>109</v>
@@ -19643,7 +19650,7 @@
         <v>82</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>82</v>
@@ -19651,13 +19658,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D140" t="s" s="2">
         <v>82</v>
@@ -19682,14 +19689,14 @@
         <v>386</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>82</v>
@@ -19718,7 +19725,7 @@
       </c>
       <c r="Y140" s="2"/>
       <c r="Z140" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>82</v>
@@ -19736,7 +19743,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19754,7 +19761,7 @@
         <v>82</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>109</v>
@@ -19763,7 +19770,7 @@
         <v>82</v>
       </c>
       <c r="AO140" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="AP140" t="s" s="2">
         <v>82</v>
@@ -19771,10 +19778,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19797,19 +19804,19 @@
         <v>82</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
@@ -19858,7 +19865,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -19876,7 +19883,7 @@
         <v>82</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>82</v>
@@ -19885,7 +19892,7 @@
         <v>82</v>
       </c>
       <c r="AO141" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="AP141" t="s" s="2">
         <v>82</v>
@@ -19893,10 +19900,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19919,19 +19926,19 @@
         <v>82</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>82</v>
@@ -19980,7 +19987,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -19992,13 +19999,13 @@
         <v>204</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>82</v>
@@ -20007,7 +20014,7 @@
         <v>82</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AP142" t="s" s="2">
         <v>82</v>
@@ -20015,10 +20022,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20041,17 +20048,17 @@
         <v>82</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
@@ -20100,7 +20107,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -20118,7 +20125,7 @@
         <v>82</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>109</v>
@@ -20127,7 +20134,7 @@
         <v>82</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="AP143" t="s" s="2">
         <v>82</v>
@@ -20135,10 +20142,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20164,14 +20171,14 @@
         <v>171</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>82</v>
@@ -20199,10 +20206,10 @@
         <v>261</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>82</v>
@@ -20220,7 +20227,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -20238,7 +20245,7 @@
         <v>82</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>109</v>
@@ -20247,7 +20254,7 @@
         <v>82</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="AP144" t="s" s="2">
         <v>82</v>
@@ -20255,10 +20262,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20284,14 +20291,14 @@
         <v>425</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>82</v>
@@ -20340,7 +20347,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20349,7 +20356,7 @@
         <v>91</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>103</v>
@@ -20358,7 +20365,7 @@
         <v>82</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>109</v>
@@ -20367,7 +20374,7 @@
         <v>82</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="AP145" t="s" s="2">
         <v>82</v>
@@ -20375,10 +20382,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20404,10 +20411,10 @@
         <v>341</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -20458,7 +20465,7 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20476,7 +20483,7 @@
         <v>82</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>109</v>
@@ -20493,10 +20500,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20519,19 +20526,19 @@
         <v>82</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="O147" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>82</v>
@@ -20580,7 +20587,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20598,10 +20605,10 @@
         <v>82</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>82</v>
@@ -20615,10 +20622,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20733,10 +20740,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20853,14 +20860,14 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
@@ -20882,10 +20889,10 @@
         <v>112</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="N150" t="s" s="2">
         <v>115</v>
@@ -20940,7 +20947,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -20975,10 +20982,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21004,16 +21011,16 @@
         <v>386</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>82</v>
@@ -21062,7 +21069,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>91</v>
@@ -21080,16 +21087,16 @@
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -21097,10 +21104,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21123,19 +21130,19 @@
         <v>82</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="O152" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>82</v>
@@ -21184,7 +21191,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21202,16 +21209,16 @@
         <v>82</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>82</v>
@@ -21219,14 +21226,14 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
@@ -21245,16 +21252,16 @@
         <v>82</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
@@ -21304,7 +21311,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21322,7 +21329,7 @@
         <v>82</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>109</v>
@@ -21331,7 +21338,7 @@
         <v>82</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>82</v>
@@ -21339,10 +21346,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21365,19 +21372,19 @@
         <v>92</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>82</v>
@@ -21426,7 +21433,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21444,10 +21451,10 @@
         <v>82</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>82</v>
@@ -21461,10 +21468,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21487,19 +21494,19 @@
         <v>92</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -21548,7 +21555,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21566,7 +21573,7 @@
         <v>82</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>109</v>
@@ -21583,10 +21590,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21701,10 +21708,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21821,14 +21828,14 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -21850,10 +21857,10 @@
         <v>112</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="N158" t="s" s="2">
         <v>115</v>
@@ -21908,7 +21915,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -21943,10 +21950,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21969,16 +21976,16 @@
         <v>92</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
@@ -22028,7 +22035,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>91</v>
@@ -22055,7 +22062,7 @@
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>82</v>
@@ -22063,10 +22070,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22092,10 +22099,10 @@
         <v>171</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -22125,28 +22132,28 @@
         <v>261</v>
       </c>
       <c r="Y160" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="Z160" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="AA160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF160" t="s" s="2">
         <v>818</v>
-      </c>
-      <c r="Z160" t="s" s="2">
-        <v>819</v>
-      </c>
-      <c r="AA160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF160" t="s" s="2">
-        <v>816</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>91</v>
@@ -22164,7 +22171,7 @@
         <v>82</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>109</v>

--- a/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-patient.xlsx
+++ b/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T07:57:25+00:00</t>
+    <t>2025-09-16T06:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-patient.xlsx
+++ b/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T06:50:02+00:00</t>
+    <t>2025-09-16T07:54:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-patient.xlsx
+++ b/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T07:54:55+00:00</t>
+    <t>2025-09-16T13:04:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-patient.xlsx
+++ b/346-flux---gestion-des-ids/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T13:04:41+00:00</t>
+    <t>2025-09-17T15:44:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
